--- a/src/main/resources/export/Adresse-livraison.xlsx
+++ b/src/main/resources/export/Adresse-livraison.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8548C22-C46B-448E-B5AE-74EB941DDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD899DF2-4C4A-44D8-A624-7C53B61AE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adress Livraison" sheetId="4" r:id="rId1"/>
+    <sheet name="Description" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>address_delivery_name</t>
   </si>
@@ -33,13 +34,58 @@
   </si>
   <si>
     <t>address_delivery_country</t>
+  </si>
+  <si>
+    <t>Nom du champ</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Valeurs possibles</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>Alphanumérique</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Première ligne de l'adresse</t>
+  </si>
+  <si>
+    <t>Deuxième ligne de l'adresse</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Code postal de l'adresse</t>
+  </si>
+  <si>
+    <t>numérique.</t>
+  </si>
+  <si>
+    <t>Ville associée à l'adresse</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>Pays associé à l'adresse</t>
+  </si>
+  <si>
+    <t>Nom d'adresse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +108,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,10 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,16 +517,19 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +548,126 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F8CEF-189C-4D06-ACC7-9F16A713CA95}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
